--- a/Template-SEO-audit.xlsx
+++ b/Template-SEO-audit.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>Category</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Page Titles</t>
   </si>
   <si>
-    <t>Robots</t>
-  </si>
-  <si>
     <t>Font Size</t>
   </si>
   <si>
@@ -131,18 +128,12 @@
     <t>Forms rquire labels to be read by assistive technology</t>
   </si>
   <si>
-    <t>Links using icons need to have text as well for assistive technology</t>
-  </si>
-  <si>
     <t>WCAG 2.1 - criterion 4.1.2</t>
   </si>
   <si>
     <t>WCAG 2.1 - criterion 4.1.3</t>
   </si>
   <si>
-    <t>Hidden text to label icon links</t>
-  </si>
-  <si>
     <t>Use &lt;label&gt; with for attribute and &lt;input&gt; to create form inputs</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>Google operates on a mobile first system, so how the site runs in mobile sizing is crucial</t>
   </si>
   <si>
-    <t>Responsive sizing is recommended to make your site functional and accessible</t>
-  </si>
-  <si>
     <t>Google Beginner SEO Documentation (Make your site mobile friendly)</t>
   </si>
   <si>
@@ -215,9 +203,6 @@
     <t>Tap targets need to be of an appropriate size</t>
   </si>
   <si>
-    <t>Increase size of tap targets</t>
-  </si>
-  <si>
     <t>Lighthouse SEO report</t>
   </si>
   <si>
@@ -242,24 +227,9 @@
     <t>Minify JS and CSS files</t>
   </si>
   <si>
-    <t>Having robots set to index,follow ensures crawlability of the page links</t>
-  </si>
-  <si>
-    <t>Add in robots with settings to index and follow</t>
-  </si>
-  <si>
-    <t>MDN (standard metadata names)</t>
-  </si>
-  <si>
     <t>Google Beginner SEO Documentation (Use links wisely)</t>
   </si>
   <si>
-    <t>Links are cruicial to crawlability and need adequate descriptions as well as them being from other sites. Too many irrelevant links alerts spam and becomes unproductive</t>
-  </si>
-  <si>
-    <t>Improve quality of link descriptions, as well as contact previous clients to get external links, offer this with links to their sites through the homepage. Remove excess seo links in the footer</t>
-  </si>
-  <si>
     <t xml:space="preserve">The meta description tag is shown on the search page and shoud be a page summary. </t>
   </si>
   <si>
@@ -276,6 +246,24 @@
   </si>
   <si>
     <t>Google Beginner SEO Documentation (know what your readers want(and give it to them)</t>
+  </si>
+  <si>
+    <t>Links are cruicial to crawlability and need appropriate text as well being clearly a link. External links are important but too many irrelevant links alerts spam and becomes unproductive</t>
+  </si>
+  <si>
+    <t>Improve quality of link text and consistnecy, as well as contact previous clients to get external links, offer this with links to their sites through the homepage. Remove excess seo links in the footer</t>
+  </si>
+  <si>
+    <t>Links using icons need to have labels for assistive technology</t>
+  </si>
+  <si>
+    <t>Use aria-label to describe purpose</t>
+  </si>
+  <si>
+    <t>Change contact link to consistent buttons and up size of footer text</t>
+  </si>
+  <si>
+    <t>Change title and quote images to headings and aside to improve responsive appearance</t>
   </si>
 </sst>
 </file>
@@ -589,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -651,16 +639,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
@@ -671,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="48" x14ac:dyDescent="0.2">
@@ -691,16 +679,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="48" x14ac:dyDescent="0.2">
@@ -711,16 +699,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -731,16 +719,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="96" x14ac:dyDescent="0.2">
@@ -748,19 +736,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="48" x14ac:dyDescent="0.2">
@@ -768,19 +756,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -791,16 +779,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -811,16 +799,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -831,16 +819,16 @@
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E11" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -848,19 +836,19 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -871,19 +859,19 @@
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -891,16 +879,16 @@
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="48" x14ac:dyDescent="0.2">
@@ -911,16 +899,16 @@
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="64" x14ac:dyDescent="0.2">
@@ -931,16 +919,16 @@
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -951,16 +939,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -971,58 +959,39 @@
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2005,7 +1974,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
